--- a/public/DataTitipan/titipan.xlsx
+++ b/public/DataTitipan/titipan.xlsx
@@ -15,18 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
-  <si>
-    <t>Jus Jambu</t>
-  </si>
-  <si>
-    <t>Udin</t>
-  </si>
-  <si>
-    <t>Mantapp</t>
-  </si>
-  <si>
-    <t>2024-03-06T02:39:23.000000Z</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>hello ges</t>
+  </si>
+  <si>
+    <t>azmi</t>
+  </si>
+  <si>
+    <t>surga itu epep</t>
+  </si>
+  <si>
+    <t>2024-03-06T04:24:01.000000Z</t>
+  </si>
+  <si>
+    <t>2024-03-06T04:42:54.000000Z</t>
+  </si>
+  <si>
+    <t>ikan</t>
+  </si>
+  <si>
+    <t>2024-03-06T06:39:04.000000Z</t>
   </si>
 </sst>
 </file>
@@ -366,7 +375,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,7 +385,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -388,10 +397,10 @@
         <v>5000</v>
       </c>
       <c r="E1">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="F1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -401,6 +410,64 @@
       </c>
       <c r="I1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>4000</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
